--- a/data/case1/2/P_device_3.xlsx
+++ b/data/case1/2/P_device_3.xlsx
@@ -53,35 +53,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.0094204589018756519</v>
+        <v>-0.010969815830924745</v>
       </c>
       <c r="B1" s="0">
-        <v>0.009420457556301302</v>
+        <v>0.01096981374143109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.070367784826296451</v>
+        <v>0.0072252819790232072</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.070367786099032131</v>
+        <v>-0.0072252841186432014</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.073124441827285683</v>
+        <v>0.027571759699372839</v>
       </c>
       <c r="B3" s="0">
-        <v>0.073124440584946868</v>
+        <v>-0.02757176183540266</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>-0.072933828027747255</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.072933826042211131</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.030964096205227373</v>
+      </c>
+      <c r="B5" s="0">
+        <v>-0.030964098253871239</v>
       </c>
     </row>
   </sheetData>
